--- a/biology/Botanique/Prima_(pomme)/Prima_(pomme).xlsx
+++ b/biology/Botanique/Prima_(pomme)/Prima_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prima est un cultivar de pommier domestique obtenu aux États-Unis en 1963 et diffusé en 1970.
-Parfois référencé Co-op2[1].
+Parfois référencé Co-op2.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Croisements multiples effectués par des universités américaines (PRI: Purdue, Rutgers et d'Illinois) pour sélectionner des variétés résistantes à la tavelure du pommier: PR1-14-510 x NJ123249
 Descendants:
@@ -547,7 +561,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Groupe de pollinisation: B
 </t>
@@ -578,7 +594,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cultivar possède le gène Vf de résistance à la tavelure obtenu du Malus floribunda.
 </t>
